--- a/Results2023.xlsx
+++ b/Results2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="501">
   <si>
     <t>Aantal instant classics</t>
   </si>
@@ -62,31 +62,28 @@
     <t>Kjeld</t>
   </si>
   <si>
-    <t>Barbie Girl</t>
-  </si>
-  <si>
-    <t>Banger Hart</t>
-  </si>
-  <si>
-    <t>Altijd Blijven Gassen</t>
-  </si>
-  <si>
-    <t>300 PS (... Auto)</t>
-  </si>
-  <si>
-    <t>Trump 2024</t>
-  </si>
-  <si>
-    <t>Het Fluitlied</t>
-  </si>
-  <si>
-    <t>Huisje Op Wielen</t>
-  </si>
-  <si>
-    <t>De Toreador</t>
-  </si>
-  <si>
-    <t>Belle Hélène</t>
+    <t>Bratislava Symphony Orchestra</t>
+  </si>
+  <si>
+    <t>Always Mirin</t>
+  </si>
+  <si>
+    <t>Gino Pietermaai</t>
+  </si>
+  <si>
+    <t>MEROL</t>
+  </si>
+  <si>
+    <t>BENR</t>
+  </si>
+  <si>
+    <t>De Huilende Rappers</t>
+  </si>
+  <si>
+    <t>Brainpower,Dicecream</t>
+  </si>
+  <si>
+    <t>De Mannen Van De Bouw</t>
   </si>
   <si>
     <t>62 %</t>
@@ -113,1609 +110,1414 @@
     <t>67 %</t>
   </si>
   <si>
-    <t>Artiest</t>
-  </si>
-  <si>
-    <t>Amsterdam Is Anders</t>
-  </si>
-  <si>
-    <t>All I Want for Christmas Is You</t>
-  </si>
-  <si>
-    <t>Starships</t>
-  </si>
-  <si>
-    <t>Jouw Blik</t>
-  </si>
-  <si>
-    <t>Insomnia</t>
-  </si>
-  <si>
-    <t>Caramelldansen</t>
-  </si>
-  <si>
-    <t>Pjanoo</t>
-  </si>
-  <si>
-    <t>Pommes mit Senf (I Promised Myself)</t>
-  </si>
-  <si>
-    <t>Pietenjong</t>
-  </si>
-  <si>
-    <t>Pompend Orgeltje</t>
-  </si>
-  <si>
-    <t>Pizza Met Ananas</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>Pilsie Nakkie</t>
-  </si>
-  <si>
-    <t>Poppers!</t>
-  </si>
-  <si>
-    <t>Pillenkop (feat. Vieze Asbak)</t>
-  </si>
-  <si>
-    <t>Popular (with Playboi Carti &amp; Madonna)</t>
-  </si>
-  <si>
-    <t>Pik, Pik, Pik (Finger in den A...)</t>
-  </si>
-  <si>
-    <t>#Soundof2020</t>
+    <t>Artist Name(s)</t>
+  </si>
+  <si>
+    <t>Grant Macdonald</t>
+  </si>
+  <si>
+    <t>GPF</t>
+  </si>
+  <si>
+    <t>SICK LEGEND</t>
+  </si>
+  <si>
+    <t>Rauw Vlees</t>
+  </si>
+  <si>
+    <t>Klaus Veen,Joel Beukers</t>
+  </si>
+  <si>
+    <t>De Smurfen</t>
+  </si>
+  <si>
+    <t>Kale Toeter</t>
+  </si>
+  <si>
+    <t>MCR-T,horsegiirL</t>
+  </si>
+  <si>
+    <t>Arjon Oostrom</t>
+  </si>
+  <si>
+    <t>Aqua</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>Gassie &amp; Adriaan</t>
+  </si>
+  <si>
+    <t>Gotu Jim</t>
+  </si>
+  <si>
+    <t>Natte Visstick</t>
+  </si>
+  <si>
+    <t>Game Monsters</t>
+  </si>
+  <si>
+    <t>Joost,gladde paling</t>
+  </si>
+  <si>
+    <t>Snelle</t>
+  </si>
+  <si>
+    <t>Gigi D'Agostino</t>
+  </si>
+  <si>
+    <t>EAV (Erste Allgemeine Verunsicherung)</t>
+  </si>
+  <si>
+    <t>The Opposites</t>
+  </si>
+  <si>
+    <t>Gebroeders Ko</t>
+  </si>
+  <si>
+    <t>Book Mayhem</t>
+  </si>
+  <si>
+    <t>Def Rhymz</t>
+  </si>
+  <si>
+    <t>Cristobal Tapia De Veer</t>
+  </si>
+  <si>
+    <t>Memphis Depay</t>
+  </si>
+  <si>
+    <t>Billy Dans</t>
+  </si>
+  <si>
+    <t>Heracles FanChants</t>
+  </si>
+  <si>
+    <t>Various Artists</t>
+  </si>
+  <si>
+    <t>Didier Armeni</t>
+  </si>
+  <si>
+    <t>POMBAK</t>
+  </si>
+  <si>
+    <t>Sick &amp; Nimon,Kraantje Pappie,Bizzey</t>
+  </si>
+  <si>
+    <t>The Guy Who Sings Your Name Over and Over</t>
+  </si>
+  <si>
+    <t>Volviers</t>
+  </si>
+  <si>
+    <t>De Jeugd Van Tegenwoordig</t>
+  </si>
+  <si>
+    <t>Kratos,Hardstyle Gym Bro</t>
+  </si>
+  <si>
+    <t>the Unbreakable</t>
+  </si>
+  <si>
+    <t>Faithless</t>
+  </si>
+  <si>
+    <t>gladde paling</t>
+  </si>
+  <si>
+    <t>De Doelleazen,Henk Wijngaard</t>
+  </si>
+  <si>
+    <t>Roxy Dekker</t>
+  </si>
+  <si>
+    <t>Rucka Rucka Ali</t>
+  </si>
+  <si>
+    <t>Ace of Spades</t>
+  </si>
+  <si>
+    <t>Ajax FanChants,Ajax Fans Voetbal Liederen</t>
+  </si>
+  <si>
+    <t>Ryan Gosling</t>
+  </si>
+  <si>
+    <t>Altijd Larstig &amp; Rob Gasd'rop</t>
+  </si>
+  <si>
+    <t>Kim Petras</t>
+  </si>
+  <si>
+    <t>Raf Coppens</t>
+  </si>
+  <si>
+    <t>Ernst, Bobbie en de rest</t>
+  </si>
+  <si>
+    <t>Eric Prydz</t>
+  </si>
+  <si>
+    <t>Sub Zero Project</t>
+  </si>
+  <si>
+    <t>Ovenfrikandel</t>
+  </si>
+  <si>
+    <t>POSEIDON,ZYZZMODE,Tazzy</t>
+  </si>
+  <si>
+    <t>PASSENGER OF SHIT</t>
+  </si>
+  <si>
+    <t>Outsiders,John West</t>
+  </si>
+  <si>
+    <t>Outsiders,Frank Van Etten</t>
+  </si>
+  <si>
+    <t>Papa Razzi and the Photogs</t>
+  </si>
+  <si>
+    <t>PTT Mannenkoor en Anneke Douma</t>
+  </si>
+  <si>
+    <t>Psychose</t>
+  </si>
+  <si>
+    <t>Party Animals,The Opposites</t>
+  </si>
+  <si>
+    <t>Party Piet Pablo,Meester Jesper,Love Piet</t>
+  </si>
+  <si>
+    <t>Ricchi E Poveri</t>
+  </si>
+  <si>
+    <t>Rene Schuurmans</t>
+  </si>
+  <si>
+    <t>Re-Solve,Xrim,BØW</t>
+  </si>
+  <si>
+    <t>Ralf Poelman</t>
+  </si>
+  <si>
+    <t>Ralf</t>
+  </si>
+  <si>
+    <t>Radical Redemption,Digital Punk</t>
+  </si>
+  <si>
+    <t>Quk’s</t>
+  </si>
+  <si>
+    <t>Quincy Wilson</t>
+  </si>
+  <si>
+    <t>Purple Disco Machine</t>
+  </si>
+  <si>
+    <t>Opus</t>
+  </si>
+  <si>
+    <t>Poopy</t>
+  </si>
+  <si>
+    <t>Pokémon</t>
+  </si>
+  <si>
+    <t>Planpiet &amp; Juffrouw Pita,Sinterklaas,Sinterklaasliedjes</t>
+  </si>
+  <si>
+    <t>Pietje Potent</t>
   </si>
   <si>
     <t>Piet Piraat</t>
   </si>
   <si>
-    <t>Pragmatic</t>
-  </si>
-  <si>
-    <t>Party All the Time</t>
-  </si>
-  <si>
-    <t>Op Een Grote Paddestoel</t>
-  </si>
-  <si>
-    <t>Op Een Level</t>
-  </si>
-  <si>
-    <t>Opus</t>
-  </si>
-  <si>
-    <t>PIETER-JAN</t>
-  </si>
-  <si>
-    <t>PSV Jump</t>
-  </si>
-  <si>
-    <t>Padellen</t>
-  </si>
-  <si>
-    <t>Party Rock Anthem</t>
-  </si>
-  <si>
-    <t>Piepshow</t>
-  </si>
-  <si>
-    <t>Party Sahne</t>
-  </si>
-  <si>
-    <t>Party Time</t>
-  </si>
-  <si>
-    <t>Patatjes</t>
-  </si>
-  <si>
-    <t>Path Of The Warrior (Defqon.1 2023 Anthem)</t>
-  </si>
-  <si>
-    <t>Pepas</t>
-  </si>
-  <si>
-    <t>Pianoman (Hardstyle Remix)</t>
-  </si>
-  <si>
-    <t>Postman Pat Aint Got Shit on Me</t>
-  </si>
-  <si>
-    <t>Push (From Barbie The Album)</t>
-  </si>
-  <si>
-    <t>Prince Harry Cumboy</t>
-  </si>
-  <si>
-    <t>Ruud Van Nistelrooy</t>
-  </si>
-  <si>
-    <t>Shower</t>
-  </si>
-  <si>
-    <t>Sex Offender Shuffle</t>
-  </si>
-  <si>
-    <t>Sex In De Bejaardenflat</t>
-  </si>
-  <si>
-    <t>Seinfeld Theme</t>
-  </si>
-  <si>
-    <t>Schultenbräu</t>
-  </si>
-  <si>
-    <t>Schudden</t>
-  </si>
-  <si>
-    <t>Schijten Op Een Dixi</t>
-  </si>
-  <si>
-    <t>Sca Sca Scania</t>
-  </si>
-  <si>
-    <t>Satisfyer</t>
-  </si>
-  <si>
-    <t>Satanistische Bloeddrinkende Elite</t>
-  </si>
-  <si>
-    <t>Sarà perché ti amo</t>
-  </si>
-  <si>
-    <t>Samsonrock</t>
-  </si>
-  <si>
-    <t>STIMULUS PACKAGE FREESTYLE</t>
-  </si>
-  <si>
-    <t>STAR WARS SAMBA</t>
-  </si>
-  <si>
-    <t>Ruggengraat</t>
-  </si>
-  <si>
-    <t>Pure Lust am Leben</t>
-  </si>
-  <si>
-    <t>Rosanne</t>
-  </si>
-  <si>
-    <t>Rookpauze 2</t>
-  </si>
-  <si>
-    <t>Rook voor 2</t>
-  </si>
-  <si>
-    <t>Roei De Boot</t>
-  </si>
-  <si>
-    <t>Rocket Power Theme</t>
-  </si>
-  <si>
-    <t>Rijkswaterstaat</t>
-  </si>
-  <si>
-    <t>Requiem</t>
-  </si>
-  <si>
-    <t>Renaissance (Main Title Theme)</t>
-  </si>
-  <si>
-    <t>Rellen in De Hel</t>
-  </si>
-  <si>
-    <t>Reflection</t>
-  </si>
-  <si>
-    <t>Raven Is Leven</t>
-  </si>
-  <si>
-    <t>Ram Ranch 705</t>
-  </si>
-  <si>
-    <t>Raket naar de maan</t>
-  </si>
-  <si>
-    <t>Que Si, Que No</t>
-  </si>
-  <si>
-    <t>Onze Dag</t>
-  </si>
-  <si>
-    <t>Oeteldonk Met Jou</t>
-  </si>
-  <si>
-    <t>Ontspanje</t>
-  </si>
-  <si>
-    <t>Lekker Bijpakken</t>
-  </si>
-  <si>
-    <t>Luxe Benen</t>
-  </si>
-  <si>
-    <t>Luchtalarm</t>
-  </si>
-  <si>
-    <t>Low (feat. T-Pain)</t>
-  </si>
-  <si>
-    <t>Losing My Mind (ABGT519)</t>
-  </si>
-  <si>
-    <t>Long Island Ice Tea</t>
-  </si>
-  <si>
-    <t>Lollipop (Candyman)</t>
-  </si>
-  <si>
-    <t>Live Is Life</t>
-  </si>
-  <si>
-    <t>Liquid Spirit</t>
-  </si>
-  <si>
-    <t>Limoncello</t>
-  </si>
-  <si>
-    <t>Limboland</t>
-  </si>
-  <si>
-    <t>Lilluke Linda</t>
-  </si>
-  <si>
-    <t>Liefde Is Als Een Sigaret</t>
-  </si>
-  <si>
-    <t>Leven Als Een Prof</t>
-  </si>
-  <si>
-    <t>Lekker Ding, Dit Is Je Verjaardag</t>
-  </si>
-  <si>
-    <t>Leef Nu Het Kan</t>
-  </si>
-  <si>
-    <t>Only Girl</t>
-  </si>
-  <si>
-    <t>Lean On (feat. MØ &amp; DJ Snake)</t>
-  </si>
-  <si>
-    <t>Last Christmas</t>
-  </si>
-  <si>
-    <t>Lang Zal Hij Leven</t>
-  </si>
-  <si>
-    <t>Lam Zijn Is Logisch (Alcoholisch)</t>
-  </si>
-  <si>
-    <t>Ladders Zat</t>
-  </si>
-  <si>
-    <t>La victoire est à nous</t>
-  </si>
-  <si>
-    <t>LOVE STORY HARDSTYLE</t>
-  </si>
-  <si>
-    <t>LIJN TREKKEN, ZAGEN.</t>
-  </si>
-  <si>
-    <t>L'Amour Toujours</t>
-  </si>
-  <si>
-    <t>Kom Aan Spartanen (Hardstyle Versie Sparta Nijkerk)</t>
-  </si>
-  <si>
-    <t>Klaus, Heute Hast Du Geburtstag</t>
-  </si>
-  <si>
-    <t>Kk Lekker Ontbijtje</t>
-  </si>
-  <si>
-    <t>Kk Kikker (Op Een Motorfiets)</t>
-  </si>
-  <si>
-    <t>Kinderarbeid</t>
-  </si>
-  <si>
-    <t>MACARENA</t>
-  </si>
-  <si>
-    <t>Maat, Ik Ga Kk Hard</t>
-  </si>
-  <si>
-    <t>Marea (we’ve lost dancing)</t>
-  </si>
-  <si>
-    <t>Mario Kart 8 Deluxe (Trap Remix)</t>
-  </si>
-  <si>
-    <t>Ome Duo</t>
-  </si>
-  <si>
-    <t>Sinterklaas Hardstyle Medley</t>
-  </si>
-  <si>
-    <t>Nyan Cat Theme</t>
-  </si>
-  <si>
-    <t>Numa Numa</t>
-  </si>
-  <si>
-    <t>Null auf 100</t>
-  </si>
-  <si>
-    <t>Nu Wij Niet Meer Praten</t>
-  </si>
-  <si>
-    <t>No Cock Like Horse Cock</t>
-  </si>
-  <si>
-    <t>Narcotic</t>
-  </si>
-  <si>
-    <t>Naacho Naacho (From Rrr)</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>NO MONEY</t>
-  </si>
-  <si>
-    <t>Mädchen auf dem Pferd</t>
-  </si>
-  <si>
-    <t>My Little White Pony</t>
-  </si>
-  <si>
-    <t>My Heart Will Go On</t>
-  </si>
-  <si>
-    <t>My Gabber</t>
-  </si>
-  <si>
-    <t>My Barn My Rules</t>
-  </si>
-  <si>
-    <t>Moskau</t>
-  </si>
-  <si>
-    <t>Mooi Man</t>
-  </si>
-  <si>
-    <t>Mijn Speedboot</t>
-  </si>
-  <si>
-    <t>Mijn Goeie Ouwe Delft</t>
-  </si>
-  <si>
-    <t>Mijn Engelbewaarder</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Met De Vlam in De Pijp</t>
-  </si>
-  <si>
-    <t>Meissie Meissie</t>
-  </si>
-  <si>
-    <t>Meine Bolide 2003</t>
-  </si>
-  <si>
-    <t>Mega Mindy tijd</t>
-  </si>
-  <si>
-    <t>Mega Beukmix</t>
-  </si>
-  <si>
-    <t>Mee Naar Diemen-Zuid</t>
-  </si>
-  <si>
-    <t>Me So Horny</t>
-  </si>
-  <si>
-    <t>Sinterklaas</t>
-  </si>
-  <si>
-    <t>Slik</t>
-  </si>
-  <si>
-    <t>Sinterklaas Klassendans</t>
-  </si>
-  <si>
-    <t>Waar Is De Paracetamol</t>
-  </si>
-  <si>
-    <t>What Makes You Beautiful</t>
-  </si>
-  <si>
-    <t>Westlands carnaval</t>
-  </si>
-  <si>
-    <t>Westland</t>
-  </si>
-  <si>
-    <t>Wekkerradio</t>
-  </si>
-  <si>
-    <t>Ween wao</t>
-  </si>
-  <si>
-    <t>We Hebben een Bitch</t>
-  </si>
-  <si>
-    <t>We Gaan Voor Die Kater!</t>
-  </si>
-  <si>
-    <t>Waterval (Remix)</t>
-  </si>
-  <si>
-    <t>Wat is het lekker fris</t>
-  </si>
-  <si>
-    <t>Wat Ik Wil Met Kerstmis...Ben Jij!</t>
-  </si>
-  <si>
-    <t>Wasmasjien</t>
-  </si>
-  <si>
-    <t>Waddepjedangedaan</t>
-  </si>
-  <si>
-    <t>Waar komen joden toch vandaan?</t>
-  </si>
-  <si>
-    <t>Waar Is M'n Tosti-Apparaat</t>
-  </si>
-  <si>
-    <t>WAKA WAKA DRILL</t>
-  </si>
-  <si>
-    <t>Where We Belong</t>
-  </si>
-  <si>
-    <t>Vrijmibo</t>
-  </si>
-  <si>
-    <t>Vreet Spirit</t>
-  </si>
-  <si>
-    <t>Voorverwarmen</t>
-  </si>
-  <si>
-    <t>Voel Je Dan Niet?</t>
-  </si>
-  <si>
-    <t>Vluchtstrook</t>
-  </si>
-  <si>
-    <t>Vlinders</t>
-  </si>
-  <si>
-    <t>Viva Cerveza</t>
-  </si>
-  <si>
-    <t>Vier Zomers Lang</t>
-  </si>
-  <si>
-    <t>Vegan</t>
-  </si>
-  <si>
-    <t>Vamos in je Kutje</t>
-  </si>
-  <si>
-    <t>Vakantie in de Lier</t>
-  </si>
-  <si>
-    <t>VIVA LA VIDA HARDSTYLE</t>
-  </si>
-  <si>
-    <t>Ut is weer Sneekweek</t>
-  </si>
-  <si>
-    <t>Unox Techno</t>
-  </si>
-  <si>
-    <t>What You Say?</t>
-  </si>
-  <si>
-    <t>Wie Niet Springt Is Voor Cambuur</t>
-  </si>
-  <si>
-    <t>Sinterklaasjournaal Techno</t>
-  </si>
-  <si>
-    <t>Zuipen in de trein</t>
-  </si>
-  <si>
-    <t>welcome to russia</t>
-  </si>
-  <si>
-    <t>suuuuuuuuuuu</t>
-  </si>
-  <si>
-    <t>sprinter/intercity</t>
-  </si>
-  <si>
-    <t>putting a spin on creep</t>
-  </si>
-  <si>
-    <t>noot noot</t>
-  </si>
-  <si>
-    <t>linksrechts</t>
-  </si>
-  <si>
-    <t>jezus christus is dus mijn vriend (paling mix)</t>
-  </si>
-  <si>
-    <t>in n out of LOVE</t>
-  </si>
-  <si>
-    <t>gemengde signalen</t>
-  </si>
-  <si>
-    <t>ellos.</t>
-  </si>
-  <si>
-    <t>boodschap!!</t>
-  </si>
-  <si>
-    <t>apologize tekkno</t>
-  </si>
-  <si>
-    <t>a hardstyle christmas</t>
-  </si>
-  <si>
-    <t>Zwarte Piet</t>
-  </si>
-  <si>
-    <t>Zoë Eet Pita</t>
-  </si>
-  <si>
-    <t>Wielrenners Zijn Kut</t>
-  </si>
-  <si>
-    <t>Zonder Boer Geen Voer</t>
-  </si>
-  <si>
-    <t>Zoete Zomerreis (Summer Holiday)</t>
-  </si>
-  <si>
-    <t>Zin In De Zomer Man</t>
-  </si>
-  <si>
-    <t>Ze Is Pas Net Begonnen (Leerstage / Werkstage)</t>
-  </si>
-  <si>
-    <t>Zaddy</t>
-  </si>
-  <si>
-    <t>You'll Cowards Don't Even Smoke Crack</t>
-  </si>
-  <si>
-    <t>Yoko</t>
-  </si>
-  <si>
-    <t>Year Of Summer</t>
-  </si>
-  <si>
-    <t>Y'all Ready For Dis</t>
-  </si>
-  <si>
-    <t>X-RAY</t>
-  </si>
-  <si>
-    <t>Wonderwall</t>
-  </si>
-  <si>
-    <t>Wolter Cruise</t>
-  </si>
-  <si>
-    <t>Witte Druiven &amp; Citroen</t>
-  </si>
-  <si>
-    <t>Wij Zijn Nederland</t>
-  </si>
-  <si>
-    <t>Un Lekker Delleke</t>
-  </si>
-  <si>
-    <t>UHUH (feat. Yssi SB)</t>
-  </si>
-  <si>
-    <t>Turk Uit De Kroeg</t>
-  </si>
-  <si>
-    <t>Stayin' Alive</t>
-  </si>
-  <si>
-    <t>Taairipke (Apresski versie)</t>
-  </si>
-  <si>
-    <t>THE KETCHUP SONG (ASEREJE) HARDSTYLE</t>
-  </si>
-  <si>
-    <t>Sweet Caroline B.B.B.</t>
-  </si>
-  <si>
-    <t>Super Sonic Racing</t>
-  </si>
-  <si>
-    <t>Super Smash Bros. Brawl Main Theme</t>
-  </si>
-  <si>
-    <t>Suck Toes or Die Trying</t>
-  </si>
-  <si>
-    <t>Stupid</t>
-  </si>
-  <si>
-    <t>Stronger</t>
-  </si>
-  <si>
-    <t>Storm Op Zee</t>
-  </si>
-  <si>
-    <t>Stop Migraine Pain</t>
-  </si>
-  <si>
-    <t>Stop Drugs (In Me Gezicht)</t>
-  </si>
-  <si>
-    <t>Stiekem even Gefapt</t>
-  </si>
-  <si>
-    <t>Sterrenstof</t>
-  </si>
-  <si>
-    <t>Steekvlam Uit De BBQ</t>
-  </si>
-  <si>
-    <t>Staple Tape Worms on My Penis</t>
-  </si>
-  <si>
-    <t>Tubthumping</t>
+    <t>Piet Martino</t>
+  </si>
+  <si>
+    <t>Phil Collins</t>
+  </si>
+  <si>
+    <t>Pepper Coyote</t>
+  </si>
+  <si>
+    <t>Party Piet Pablo,YORDI</t>
+  </si>
+  <si>
+    <t>Outsiders</t>
+  </si>
+  <si>
+    <t>$hirak,Ronnie Flex,Lil Kleine,Yssi SB,Outsiders</t>
+  </si>
+  <si>
+    <t>Opgekonkerd,Szeukers</t>
+  </si>
+  <si>
+    <t>MC Dries</t>
+  </si>
+  <si>
+    <t>Mart Hoogkamer</t>
+  </si>
+  <si>
+    <t>Mario Di Pario</t>
+  </si>
+  <si>
+    <t>Marie Käfer,Langer,DJ Cashi</t>
+  </si>
+  <si>
+    <t>Marcus Vlogs,Dr. Tequila,konijn5</t>
+  </si>
+  <si>
+    <t>Marcus Vlogs</t>
+  </si>
+  <si>
+    <t>Marco Schuitmaker</t>
+  </si>
+  <si>
+    <t>Marc Rebillet</t>
+  </si>
+  <si>
+    <t>Mannenkoor Karrespoor</t>
+  </si>
+  <si>
+    <t>Major Lazer,MØ,DJ Snake</t>
+  </si>
+  <si>
+    <t>Maestro Ziikos</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>MEUK</t>
+  </si>
+  <si>
+    <t>Lyrical Lull</t>
+  </si>
+  <si>
+    <t>Opgeblazen,Wilbert Pigmans</t>
+  </si>
+  <si>
+    <t>Lustrum A.S.C./A.V.S.V.,INVICTA,Gijs Stenfert</t>
+  </si>
+  <si>
+    <t>Luca-Dante Spadafora,Niklas Dee,Octavian,Peter Plate,Ulf Leo Sommer</t>
+  </si>
+  <si>
+    <t>Lizzo</t>
+  </si>
+  <si>
+    <t>Lil Texas</t>
+  </si>
+  <si>
+    <t>Le Le</t>
+  </si>
+  <si>
+    <t>Lange Frans,Baas B</t>
+  </si>
+  <si>
+    <t>La Musique Des Armées</t>
+  </si>
+  <si>
+    <t>La Fuente,Ronnie Flex,Kraantje Pappie</t>
+  </si>
+  <si>
+    <t>LMFAO,Lauren Bennett,GoonRock</t>
+  </si>
+  <si>
+    <t>LA$$A,Young Ellens,Bizzey,Alessio</t>
+  </si>
+  <si>
+    <t>Kylie Minogue</t>
+  </si>
+  <si>
+    <t>Kus</t>
+  </si>
+  <si>
+    <t>Masayoshi Takanaka</t>
+  </si>
+  <si>
+    <t>Matduke</t>
+  </si>
+  <si>
+    <t>Mega Mindy,Studio 100,Funkhauser</t>
+  </si>
+  <si>
+    <t>Meindert Talma</t>
+  </si>
+  <si>
+    <t>One Direction</t>
+  </si>
+  <si>
+    <t>Ome Omar</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>Nyan Cat</t>
+  </si>
+  <si>
+    <t>Noise Cartel,Buren Van De Brandweer</t>
+  </si>
+  <si>
+    <t>Noise Cartel</t>
+  </si>
+  <si>
+    <t>Nico Haak</t>
+  </si>
+  <si>
+    <t>Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Nick De Wit</t>
+  </si>
+  <si>
+    <t>Nick &amp; Simon</t>
+  </si>
+  <si>
+    <t>Nederlandse Hardstyle</t>
+  </si>
+  <si>
+    <t>Rob De Nijs</t>
+  </si>
+  <si>
+    <t>Natte Visstick,The Dwarfs</t>
+  </si>
+  <si>
+    <t>Natte Duif</t>
+  </si>
+  <si>
+    <t>Nachtdienst</t>
+  </si>
+  <si>
+    <t>NOMA</t>
+  </si>
+  <si>
+    <t>Mula B,Trobi</t>
+  </si>
+  <si>
+    <t>Move-it</t>
+  </si>
+  <si>
+    <t>Morning Runner</t>
+  </si>
+  <si>
+    <t>Milan Milano</t>
+  </si>
+  <si>
+    <t>Mieke</t>
+  </si>
+  <si>
+    <t>Mick Harren</t>
+  </si>
+  <si>
+    <t>Michel Teló</t>
+  </si>
+  <si>
+    <t>Mia Julia,Malle Anja,Lorenz Büffel</t>
+  </si>
+  <si>
+    <t>Merijn Scholten</t>
+  </si>
+  <si>
+    <t>Ricus Nel,Snotkop</t>
+  </si>
+  <si>
+    <t>Sam Binga,BAKEY,Redders</t>
+  </si>
+  <si>
+    <t>Robert Haag,Markus Becker</t>
+  </si>
+  <si>
+    <t>Trobi,Chivv,Kraantje Pappie,ADF Samski,Angela Groothuizen</t>
+  </si>
+  <si>
+    <t>Vindaloo Singh</t>
+  </si>
+  <si>
+    <t>Vieze Asbak,Natte Visstick</t>
+  </si>
+  <si>
+    <t>Vieze Asbak</t>
+  </si>
+  <si>
+    <t>Veul Gère</t>
+  </si>
+  <si>
+    <t>Vengaboys</t>
+  </si>
+  <si>
+    <t>Ultra Hardcore.</t>
+  </si>
+  <si>
+    <t>Turfy Gang,Trobi</t>
+  </si>
+  <si>
+    <t>Turfy Gang,LA$$A</t>
+  </si>
+  <si>
+    <t>Turfy Gang</t>
+  </si>
+  <si>
+    <t>Turbo-Team</t>
+  </si>
+  <si>
+    <t>Trump The Don,Hi-Rez,Only For The Fans</t>
+  </si>
+  <si>
+    <t>Trap Geek</t>
+  </si>
+  <si>
+    <t>Vishal Mishra,Rahul Sipligunj,M. M. Keeravani</t>
+  </si>
+  <si>
+    <t>Tragedy</t>
+  </si>
+  <si>
+    <t>Trafassi</t>
+  </si>
+  <si>
+    <t>Tommy Cash</t>
+  </si>
+  <si>
+    <t>Toki,Rory,Medium Lau</t>
+  </si>
+  <si>
+    <t>Tita Tuinslang</t>
+  </si>
+  <si>
+    <t>Thymo,ANGUZ</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>The Wipeouters</t>
+  </si>
+  <si>
+    <t>The Weeknd,Playboi Carti,Madonna</t>
+  </si>
+  <si>
+    <t>The U.S. Army Airborne Rangers</t>
+  </si>
+  <si>
+    <t>The Remix Bros</t>
+  </si>
+  <si>
+    <t>Viper</t>
+  </si>
+  <si>
+    <t>Vlaams Belang</t>
+  </si>
+  <si>
+    <t>Rocking Son</t>
+  </si>
+  <si>
+    <t>Zanger Jim,MC Feestfok</t>
+  </si>
+  <si>
+    <t>vanity,d3r,m1v</t>
+  </si>
+  <si>
+    <t>uwu,LCL,DJ UWU</t>
+  </si>
+  <si>
+    <t>moïse</t>
+  </si>
+  <si>
+    <t>gladde paling,UH!!</t>
+  </si>
+  <si>
+    <t>dlb</t>
+  </si>
+  <si>
+    <t>Zware Jongens,DJ Daroon</t>
+  </si>
+  <si>
+    <t>Zware Jongens</t>
+  </si>
+  <si>
+    <t>Zus &amp; Zooi,Eva,Aylin</t>
+  </si>
+  <si>
+    <t>Zimmz</t>
+  </si>
+  <si>
+    <t>Zany,DV8</t>
+  </si>
+  <si>
+    <t>Zanger Kafke</t>
+  </si>
+  <si>
+    <t>Yung Petsi,KA$PER HITS,Joost</t>
+  </si>
+  <si>
+    <t>Voetbal songs</t>
+  </si>
+  <si>
+    <t>Yung Petsi,KA$PER HITS</t>
+  </si>
+  <si>
+    <t>Young Marco</t>
+  </si>
+  <si>
+    <t>Young Dylan</t>
+  </si>
+  <si>
+    <t>Yoon Mirae</t>
+  </si>
+  <si>
+    <t>Yarri,Guy,KV Savage</t>
+  </si>
+  <si>
+    <t>Y U QT</t>
+  </si>
+  <si>
+    <t>Wolter Kroes</t>
+  </si>
+  <si>
+    <t>Wildstylez,Niels Geusebroek</t>
+  </si>
+  <si>
+    <t>Wheeler Walker Jr.</t>
+  </si>
+  <si>
+    <t>Wesly Bronkhorst,Opgeblazen</t>
+  </si>
+  <si>
+    <t>W817 Band</t>
+  </si>
+  <si>
+    <t>The Northern Boys</t>
+  </si>
+  <si>
+    <t>The Krisch Krosch</t>
+  </si>
+  <si>
+    <t>The Gregory Brothers</t>
+  </si>
+  <si>
+    <t>Scooter</t>
+  </si>
+  <si>
+    <t>Snatson &amp; Ket</t>
+  </si>
+  <si>
+    <t>Slimme Schemer,Tido</t>
+  </si>
+  <si>
+    <t>Sleazy Stereo,Kinoh,Trevv</t>
+  </si>
+  <si>
+    <t>Skiezo,Thierry Baudet</t>
+  </si>
+  <si>
+    <t>Ski Aggu,Joost,Otto Waalkes</t>
+  </si>
+  <si>
+    <t>Ski Aggu,Endzone,Ericson</t>
+  </si>
+  <si>
+    <t>Sjammienators</t>
+  </si>
+  <si>
+    <t>Sidney Jr,Sidney Bischoff</t>
+  </si>
+  <si>
+    <t>Scuzz Twittly</t>
+  </si>
+  <si>
+    <t>Scooter,Jebroer</t>
+  </si>
+  <si>
+    <t>Scooter,Harris &amp; Ford</t>
+  </si>
+  <si>
+    <t>Scissor Sisters</t>
+  </si>
+  <si>
+    <t>The Dubliners,The Pogues</t>
+  </si>
+  <si>
+    <t>Schneiderwirt Trio</t>
+  </si>
+  <si>
+    <t>Samson &amp; Marie</t>
+  </si>
+  <si>
+    <t>Samson &amp; Gert</t>
+  </si>
+  <si>
+    <t>Kromme jongens</t>
+  </si>
+  <si>
+    <t>SRV Mannen</t>
+  </si>
+  <si>
+    <t>SEGA SOUND TEAM,Richard Jacques</t>
+  </si>
+  <si>
+    <t>Rucka Rucka Ali,DJ Not Nice</t>
+  </si>
+  <si>
+    <t>Rotterdam Termination Source</t>
+  </si>
+  <si>
+    <t>Ronald Reagan</t>
+  </si>
+  <si>
+    <t>Ron van Zalmsaus</t>
+  </si>
+  <si>
+    <t>Rod Stewart</t>
+  </si>
+  <si>
+    <t>Snelle,Kraantje Pappie</t>
+  </si>
+  <si>
+    <t>Snelle,Outsiders</t>
+  </si>
+  <si>
+    <t>Snollebollekes</t>
+  </si>
+  <si>
+    <t>Spinvis</t>
+  </si>
+  <si>
+    <t>The City of Prague Philharmonic Orchestra</t>
+  </si>
+  <si>
+    <t>The Beep Test</t>
+  </si>
+  <si>
+    <t>The Arizon</t>
+  </si>
+  <si>
+    <t>Tess</t>
+  </si>
+  <si>
+    <t>Tek lintowe</t>
+  </si>
+  <si>
+    <t>Taylor Swift,Kungs</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Tay Zonday</t>
+  </si>
+  <si>
+    <t>Tapijtenvlieger,Gore Pinda</t>
+  </si>
+  <si>
+    <t>Tangerine Kitty</t>
+  </si>
+  <si>
+    <t>Taio Cruz</t>
+  </si>
+  <si>
+    <t>TR3NVHN</t>
+  </si>
+  <si>
+    <t>TEKKNO,GYM HARDSTYLE,HARDSTYLE BRAH</t>
+  </si>
+  <si>
+    <t>TCM</t>
+  </si>
+  <si>
+    <t>Swifty Official</t>
+  </si>
+  <si>
+    <t>Stuiter,Mary</t>
+  </si>
+  <si>
+    <t>Stonebank,EMEL</t>
+  </si>
+  <si>
+    <t>Steff,Steen,EZG</t>
+  </si>
+  <si>
+    <t>Stefan en Sean,Bram Krikke</t>
+  </si>
+  <si>
+    <t>Stef Ekkel</t>
   </si>
   <si>
     <t>Spring</t>
   </si>
   <si>
-    <t>Sperma-emmers</t>
-  </si>
-  <si>
-    <t>Speel Niet Met M'n Voeten</t>
-  </si>
-  <si>
-    <t>Spagaat</t>
-  </si>
-  <si>
-    <t>Songbird</t>
-  </si>
-  <si>
-    <t>Song Of Jigglypuff</t>
-  </si>
-  <si>
-    <t>Socialized Medicine Speech</t>
-  </si>
-  <si>
-    <t>Snelle Planga</t>
-  </si>
-  <si>
-    <t>Snatsie De Coke-O-Dil</t>
-  </si>
-  <si>
-    <t>Smurfen Style</t>
-  </si>
-  <si>
-    <t>Smurf Is Smurf</t>
-  </si>
-  <si>
-    <t>Smoking Weed Sucking Toes</t>
-  </si>
-  <si>
-    <t>Ketjap Manis</t>
-  </si>
-  <si>
-    <t>Skiën Met M'n Zussen</t>
-  </si>
-  <si>
-    <t>Tearin' up My Heart</t>
-  </si>
-  <si>
-    <t>Tepels Liegen Niet</t>
-  </si>
-  <si>
-    <t>Teringt Alles Naar Beneden</t>
-  </si>
-  <si>
-    <t>That Smile</t>
-  </si>
-  <si>
-    <t>Truck als mn woning</t>
-  </si>
-  <si>
-    <t>Trollhammaren</t>
-  </si>
-  <si>
-    <t>Treat Me Like A Slut</t>
-  </si>
-  <si>
-    <t>Treat Jew Better</t>
-  </si>
-  <si>
-    <t>Tranquilo</t>
-  </si>
-  <si>
-    <t>Tornado</t>
-  </si>
-  <si>
-    <t>Torentje</t>
-  </si>
-  <si>
-    <t>Tokyo Calling</t>
-  </si>
-  <si>
-    <t>Toeter Op M`n Waterscooter (Bubbling Versie)</t>
-  </si>
-  <si>
-    <t>Toet Toet Boin Boin, Fappen Is Lekker (Dr. Tequila Hardstyle Remix) [feat. konijn5</t>
-  </si>
-  <si>
-    <t>Titanium</t>
-  </si>
-  <si>
-    <t>Tilburg Schijt Aan Iedereen</t>
-  </si>
-  <si>
-    <t>TiK ToK</t>
-  </si>
-  <si>
-    <t>Throat Goat</t>
-  </si>
-  <si>
-    <t>Thomas Theme</t>
-  </si>
-  <si>
-    <t>Thomas The Trap Engine</t>
-  </si>
-  <si>
-    <t>There Is No New China Without the Communist Party</t>
-  </si>
-  <si>
-    <t>The Vicky Song</t>
-  </si>
-  <si>
-    <t>The Technician (Neilio Remix)</t>
-  </si>
-  <si>
-    <t>The Scientist (Nobody Said It Was Easy)</t>
-  </si>
-  <si>
-    <t>The Riddle</t>
-  </si>
-  <si>
-    <t>The Rare Auld Mountain Dew</t>
-  </si>
-  <si>
-    <t>The Pump</t>
-  </si>
-  <si>
-    <t>The Official Megamix</t>
-  </si>
-  <si>
-    <t>The Logical Song</t>
-  </si>
-  <si>
-    <t>The Kids Aren't Alright</t>
-  </si>
-  <si>
-    <t>The Daddy Song</t>
-  </si>
-  <si>
-    <t>The Bottom</t>
-  </si>
-  <si>
-    <t>The Beep Test: 20 Metre</t>
-  </si>
-  <si>
-    <t>Kick Op Je Bek</t>
-  </si>
-  <si>
-    <t>Kankerdekankerdekankerdekankerdekankerdekankerdekankerde...</t>
-  </si>
-  <si>
-    <t>Ketamine Klappers</t>
-  </si>
-  <si>
-    <t>Come Take My Hand</t>
-  </si>
-  <si>
-    <t>Dan Maar Jij</t>
-  </si>
-  <si>
-    <t>Damned</t>
-  </si>
-  <si>
-    <t>Dakterras</t>
-  </si>
-  <si>
-    <t>Dakkie Open</t>
-  </si>
-  <si>
-    <t>Daar Ga Ik Weer</t>
-  </si>
-  <si>
-    <t>Da's Lekker Man</t>
-  </si>
-  <si>
-    <t>DRUGS IN DE KELDER</t>
-  </si>
-  <si>
-    <t>DOVY KEUKENS HARDCORE REMIX</t>
-  </si>
-  <si>
-    <t>DE SHUTTLE RUN</t>
-  </si>
-  <si>
-    <t>Cruel Summer</t>
-  </si>
-  <si>
-    <t>Country Roads</t>
-  </si>
-  <si>
-    <t>Costa De Keta</t>
-  </si>
-  <si>
-    <t>Computer Mouse Click (Version 1)</t>
-  </si>
-  <si>
-    <t>Commendation Ceremony (From Mario Kart Double Dash)</t>
-  </si>
-  <si>
-    <t>Coke Speed &amp; Pillen</t>
-  </si>
-  <si>
-    <t>Bumperkleven</t>
-  </si>
-  <si>
-    <t>Clublied FC Volendam</t>
-  </si>
-  <si>
-    <t>Click Clack</t>
-  </si>
-  <si>
-    <t>Chug Jug With You, Joe Biden Edition</t>
-  </si>
-  <si>
-    <t>Christmas on the Dance Floor</t>
-  </si>
-  <si>
-    <t>Chocolate Rain</t>
-  </si>
-  <si>
-    <t>Carbonara</t>
-  </si>
-  <si>
-    <t>Car Glass Techno</t>
-  </si>
-  <si>
-    <t>Cancelcultuur</t>
-  </si>
-  <si>
-    <t>Can't Stop Now</t>
-  </si>
-  <si>
-    <t>Can't Get You out of My Head</t>
-  </si>
-  <si>
-    <t>Can Can (Hardstyle Mix)</t>
-  </si>
-  <si>
-    <t>COUNTRY RIDDIM</t>
-  </si>
-  <si>
-    <t>COKE IN DE UITVERKOOP</t>
-  </si>
-  <si>
-    <t>CALIFORNICATION HARDSTYLE</t>
-  </si>
-  <si>
-    <t>Dan Trip Ik Even</t>
-  </si>
-  <si>
-    <t>Dancing Queen</t>
-  </si>
-  <si>
-    <t>Dark Brandon</t>
-  </si>
-  <si>
-    <t>Das Boot</t>
-  </si>
-  <si>
-    <t>Dom, Lomp &amp; Mellow</t>
-  </si>
-  <si>
-    <t>Doekoe</t>
-  </si>
-  <si>
-    <t>Doe Me Dansje</t>
-  </si>
-  <si>
-    <t>Dochter Van De Groenteboer</t>
-  </si>
-  <si>
-    <t>Dit Is Vlaamse Grond</t>
-  </si>
-  <si>
-    <t>Dit Is De Tijd</t>
-  </si>
-  <si>
-    <t>Disco Disco Party Party</t>
-  </si>
-  <si>
-    <t>Dikke Julia Is Een Hoer</t>
-  </si>
-  <si>
-    <t>Dikke BMW</t>
-  </si>
-  <si>
-    <t>Die Russen kommen</t>
-  </si>
-  <si>
-    <t>Die Gummibärenbande</t>
-  </si>
-  <si>
-    <t>Diamonds (Plankton Metal Version)</t>
-  </si>
-  <si>
-    <t>Deze Vuist Op Deze Vuist (Hardcore)</t>
-  </si>
-  <si>
-    <t>Deze Is Down (feat. Alessio)</t>
-  </si>
-  <si>
-    <t>Des war's für heut</t>
-  </si>
-  <si>
-    <t>Der Zug hat keine Bremse</t>
-  </si>
-  <si>
-    <t>Den Hoorn</t>
-  </si>
-  <si>
-    <t>Dem Boiz</t>
-  </si>
-  <si>
-    <t>De Voetbaldans</t>
-  </si>
-  <si>
-    <t>De Scheetplaneet</t>
-  </si>
-  <si>
-    <t>De Postcode Sloperij</t>
-  </si>
-  <si>
-    <t>De Lampkes (Het Lied Van De Werknemers van PHILIPS)</t>
-  </si>
-  <si>
-    <t>De Hiele Tent Giet Nei De Bliksum</t>
-  </si>
-  <si>
-    <t>De Bouw Is Wauw</t>
-  </si>
-  <si>
-    <t>De Bom Doet Het Goed</t>
-  </si>
-  <si>
-    <t>De 10 Gino Geboden</t>
-  </si>
-  <si>
-    <t>Datediner</t>
-  </si>
-  <si>
-    <t>Dat Is Almelo</t>
-  </si>
-  <si>
-    <t>Bushokje</t>
-  </si>
-  <si>
-    <t>Bruder + Schwester</t>
-  </si>
-  <si>
-    <t>Du hast den schönsten Arsch der Welt</t>
-  </si>
-  <si>
-    <t>Ai Se Eu Te Pego</t>
-  </si>
-  <si>
-    <t>Anne Frank Bash 2012 (Ima Jew)</t>
-  </si>
-  <si>
-    <t>Andries Noppert (Tower fan de Jouwer)</t>
-  </si>
-  <si>
-    <t>Anal &amp; The Dishes</t>
-  </si>
-  <si>
-    <t>Amalia</t>
-  </si>
-  <si>
-    <t>Als Jij Je Vinger In Mijn Kont Steekt</t>
-  </si>
-  <si>
-    <t>Aloha! (Main Title Theme)</t>
-  </si>
-  <si>
-    <t>Almere City</t>
-  </si>
-  <si>
-    <t>All I Want For Christmas Is A Klaksbeat</t>
-  </si>
-  <si>
-    <t>All About That Rice</t>
-  </si>
-  <si>
-    <t>All About That Bass (Dubstep Remix)</t>
-  </si>
-  <si>
-    <t>Akka Om M'n Nek</t>
-  </si>
-  <si>
-    <t>Ajax De Grootste Trots Van Mokum!</t>
-  </si>
-  <si>
-    <t>Ajax Amsterdam</t>
-  </si>
-  <si>
-    <t>After van de After</t>
-  </si>
-  <si>
-    <t>Brommers Kieken (Happy Høken)</t>
-  </si>
-  <si>
-    <t>Affirmations For Ugly Cats (Overcoming Self-Loathing and Negative Beliefs, Help your cat feel pretty and boost its self esteem)</t>
-  </si>
-  <si>
-    <t>AcidTab</t>
-  </si>
-  <si>
-    <t>Achteruit</t>
-  </si>
-  <si>
-    <t>Aan Vakantie Toe</t>
-  </si>
-  <si>
-    <t>AZ Lied</t>
-  </si>
-  <si>
-    <t>ALLES IS OP</t>
-  </si>
-  <si>
-    <t>90 Minuten Lang (Party Edition)</t>
-  </si>
-  <si>
-    <t>5 Voor 12</t>
-  </si>
-  <si>
-    <t>5 Milli Freestyle</t>
-  </si>
-  <si>
-    <t>5 In De Klok</t>
-  </si>
-  <si>
-    <t>200 Beathoven</t>
-  </si>
-  <si>
-    <t>1001 Arabian Nights</t>
-  </si>
-  <si>
-    <t>100.000 Wensen (Check Check)</t>
-  </si>
-  <si>
-    <t>Anne-Fleur Vakantie</t>
-  </si>
-  <si>
-    <t>Another Day in Paradise</t>
-  </si>
-  <si>
-    <t>Anti-Hero</t>
-  </si>
-  <si>
-    <t>Antwoord</t>
-  </si>
-  <si>
-    <t>Brommer (in het water gereden)</t>
-  </si>
-  <si>
-    <t>Breaking Bad Main Title Theme (Extended)</t>
-  </si>
-  <si>
-    <t>Brain Power</t>
-  </si>
-  <si>
-    <t>Borrelplank</t>
-  </si>
-  <si>
-    <t>Boom, Boom, Boom, Boom!!</t>
-  </si>
-  <si>
-    <t>Boerepompie (feat. Snotkop)</t>
-  </si>
-  <si>
-    <t>Blub, Ik Ben Een Vis</t>
-  </si>
-  <si>
-    <t>Blinding Lights</t>
-  </si>
-  <si>
-    <t>Blijf van m'n sleutel</t>
-  </si>
-  <si>
-    <t>Blauw</t>
-  </si>
-  <si>
-    <t>Billie Bossa Nova</t>
-  </si>
-  <si>
-    <t>Bill Clinton I Did Not Have Sexual Relations with That Woman 1998</t>
-  </si>
-  <si>
-    <t>Big Booty Bitches</t>
-  </si>
-  <si>
-    <t>Bierkanon</t>
-  </si>
-  <si>
-    <t>Bier Mercy</t>
-  </si>
-  <si>
-    <t>Bewegen Is Gezond</t>
-  </si>
-  <si>
-    <t>Bent U Dronken</t>
-  </si>
-  <si>
-    <t>Bassline Junkie</t>
-  </si>
-  <si>
-    <t>Barry Pooter</t>
-  </si>
-  <si>
-    <t>Barbie Fuck</t>
-  </si>
-  <si>
-    <t>Bad Day</t>
-  </si>
-  <si>
-    <t>Baby Don't Hurt Me</t>
-  </si>
-  <si>
-    <t>BIG DICK RANDY</t>
-  </si>
-  <si>
-    <t>BEUKEN</t>
-  </si>
-  <si>
-    <t>BEN JE BANG?</t>
-  </si>
-  <si>
-    <t>Around the World (La La La La La)</t>
-  </si>
-  <si>
-    <t>Arjon's Party Medley</t>
-  </si>
-  <si>
-    <t>Arcade (Hardstyle)</t>
-  </si>
-  <si>
-    <t>Dr. Gino</t>
-  </si>
-  <si>
-    <t>Dumb Ways to Die</t>
-  </si>
-  <si>
-    <t>Ketaknaller van de Week</t>
-  </si>
-  <si>
-    <t>Hotel California</t>
-  </si>
-  <si>
-    <t>Ik Neem Je Mee</t>
-  </si>
-  <si>
-    <t>Ik Hou Van Alle Vrouwen</t>
-  </si>
-  <si>
-    <t>Ik Heb Gedronken</t>
-  </si>
-  <si>
-    <t>Ik Heb De Hele Nacht Liggen Dromen</t>
-  </si>
-  <si>
-    <t>Ik Ben Zat en Wie Ben Jij</t>
-  </si>
-  <si>
-    <t>Ik Ben Een Kikker</t>
-  </si>
-  <si>
-    <t>If You Hate Twente</t>
-  </si>
-  <si>
-    <t>I'm Good (Blue)</t>
-  </si>
-  <si>
-    <t>I Will Survive (Lalala), Original Radio Edit</t>
-  </si>
-  <si>
-    <t>I Want It That Way</t>
-  </si>
-  <si>
-    <t>I Save The Day</t>
-  </si>
-  <si>
-    <t>I Like Boobs</t>
-  </si>
-  <si>
-    <t>I Don't Feel Like Dancin'</t>
-  </si>
-  <si>
-    <t>Hotel Hafla</t>
-  </si>
-  <si>
-    <t>Hot N' Cold</t>
-  </si>
-  <si>
-    <t>Het Gras Van Het Noorderplantsoen</t>
-  </si>
-  <si>
-    <t>Horny at the Office</t>
-  </si>
-  <si>
-    <t>Hop Hop Hop</t>
-  </si>
-  <si>
-    <t>Honderd Duizend Rondjes (Tjade Remix)</t>
-  </si>
-  <si>
-    <t>Hollandse Vlag Je Bent Mijn Glorie</t>
-  </si>
-  <si>
-    <t>Hollandse Hit Klassiekers Medley</t>
-  </si>
-  <si>
-    <t>Holiday In Spain</t>
-  </si>
-  <si>
-    <t>Holiday</t>
-  </si>
-  <si>
-    <t>Hipnotiziran</t>
-  </si>
-  <si>
-    <t>Himmelsrand</t>
-  </si>
-  <si>
-    <t>Hideaway</t>
-  </si>
-  <si>
-    <t>Het huis Anubis</t>
-  </si>
-  <si>
-    <t>Het Stoute Blik</t>
-  </si>
-  <si>
-    <t>Het Regent Zonnestralen</t>
-  </si>
-  <si>
-    <t>Het Pils Lied</t>
-  </si>
-  <si>
-    <t>Ik Spring Voor NAC</t>
-  </si>
-  <si>
-    <t>Ik Zeg Tjeu</t>
-  </si>
-  <si>
-    <t>Ik Zit Vastgelijmd</t>
-  </si>
-  <si>
-    <t>In Da Club</t>
-  </si>
-  <si>
-    <t>Kaplaarzen</t>
-  </si>
-  <si>
-    <t>'Helden'</t>
-  </si>
-  <si>
-    <t>Kanker Koud</t>
-  </si>
-  <si>
-    <t>Kalmerende Zee Geluiden</t>
-  </si>
-  <si>
-    <t>Kali Sinti</t>
-  </si>
-  <si>
-    <t>Kabouterdans (origineel gezongen door kabouter Plop)</t>
-  </si>
-  <si>
-    <t>Kabinet</t>
-  </si>
-  <si>
-    <t>KIP ME CURRY</t>
-  </si>
-  <si>
-    <t>KETAMINE</t>
-  </si>
-  <si>
-    <t>KERST MET DE FAM</t>
-  </si>
-  <si>
-    <t>K-k-k Kampioenen</t>
-  </si>
-  <si>
-    <t>Just Like Fur Elise (Remix)</t>
-  </si>
-  <si>
-    <t>Juf is verliefd op zwarte Piet</t>
-  </si>
-  <si>
-    <t>Jingle Bells</t>
-  </si>
-  <si>
-    <t>Jingle Bell Rock (Indian Christmas Remix)</t>
-  </si>
-  <si>
-    <t>Jij Krijgt Die Lach Niet Van Mijn Gezicht (PSV Versie)</t>
-  </si>
-  <si>
-    <t>Jerk It Out</t>
-  </si>
-  <si>
-    <t>Je Vader</t>
-  </si>
-  <si>
-    <t>Je Mag Het Hebben</t>
-  </si>
-  <si>
-    <t>Jan-Poep Aardeklei</t>
-  </si>
-  <si>
-    <t>Jammer Dan</t>
-  </si>
-  <si>
-    <t>I’m Just Ken</t>
-  </si>
-  <si>
-    <t>It′s My Life</t>
-  </si>
-  <si>
-    <t>It's OK if you Poop / Pee Your Pants Sometimes. Don't Feel Bad.</t>
-  </si>
-  <si>
-    <t>Indische Waterlelies</t>
-  </si>
-  <si>
-    <t>In Zwolle als PEC</t>
-  </si>
-  <si>
-    <t>In Spanje</t>
-  </si>
-  <si>
-    <t>In De Tram</t>
-  </si>
-  <si>
-    <t>Het Is Kerst</t>
-  </si>
-  <si>
-    <t>Duurt Te Lang</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>Gabber Samson</t>
-  </si>
-  <si>
-    <t>Fuckin Russian Soldierboys</t>
-  </si>
-  <si>
-    <t>Fucked Russian Soldiers</t>
-  </si>
-  <si>
-    <t>Frysk folksliet</t>
-  </si>
-  <si>
-    <t>Frozen Flame</t>
-  </si>
-  <si>
-    <t>Frikandel Speciaal</t>
-  </si>
-  <si>
-    <t>Friesenjung</t>
-  </si>
-  <si>
-    <t>Freestyler</t>
-  </si>
-  <si>
-    <t>Freefall</t>
-  </si>
-  <si>
-    <t>Fossiel</t>
-  </si>
-  <si>
-    <t>Football is coming home</t>
-  </si>
-  <si>
-    <t>Flappie</t>
-  </si>
-  <si>
-    <t>First Day Out</t>
-  </si>
-  <si>
-    <t>Firework</t>
-  </si>
-  <si>
-    <t>Ferry de Roze Flamingo</t>
-  </si>
-  <si>
-    <t>Helikopter</t>
-  </si>
-  <si>
-    <t>Feliz Navidad</t>
-  </si>
-  <si>
-    <t>FRED</t>
-  </si>
-  <si>
-    <t>FEYENOORD KAMPIOEN</t>
-  </si>
-  <si>
-    <t>F*cking Vet!!!</t>
-  </si>
-  <si>
-    <t>Erik ten Hag</t>
-  </si>
-  <si>
-    <t>Enormous Penis</t>
-  </si>
-  <si>
-    <t>Enjoy the Silence</t>
-  </si>
-  <si>
-    <t>Engelbewaarder</t>
-  </si>
-  <si>
-    <t>En Wie Niet Springt Die Is Geen Jood</t>
-  </si>
-  <si>
-    <t>Elo E Elo O (Party si, Kater no)</t>
-  </si>
-  <si>
-    <t>Electrolyte Rider</t>
-  </si>
-  <si>
-    <t>Eendje Kwak Kookt Zijn Eigen Potje</t>
-  </si>
-  <si>
-    <t>EVERYTIME WE TOUCH</t>
-  </si>
-  <si>
-    <t>Dynamite</t>
-  </si>
-  <si>
-    <t>Geen Cartier</t>
-  </si>
-  <si>
-    <t>Gezicht op Delft</t>
-  </si>
-  <si>
-    <t>Gimme Bass</t>
-  </si>
-  <si>
-    <t>Girl's Club</t>
-  </si>
-  <si>
-    <t>Helemaal Lijp Met M'n Shisha Pijp</t>
-  </si>
-  <si>
-    <t>Hele Lekkere Kontseks</t>
-  </si>
-  <si>
-    <t>Hee Marco Prima</t>
-  </si>
-  <si>
-    <t>Headache</t>
-  </si>
-  <si>
-    <t>Have You Ever Seen The Rain</t>
-  </si>
-  <si>
-    <t>Hart Verloren</t>
-  </si>
-  <si>
-    <t>Hardstyle Dikke Lul</t>
-  </si>
-  <si>
-    <t>Harder Dan Ik Hebben Kan</t>
-  </si>
-  <si>
-    <t>Hard Work</t>
-  </si>
-  <si>
-    <t>Halo</t>
-  </si>
-  <si>
-    <t>Hallo Vriendjes (Hardstyle)</t>
-  </si>
-  <si>
-    <t>Hallo Kever</t>
-  </si>
-  <si>
-    <t>Hakuna Matata (From The Lion King)</t>
-  </si>
-  <si>
-    <t>Hakuna Matata</t>
-  </si>
-  <si>
-    <t>Hakke &amp; Zage</t>
-  </si>
-  <si>
-    <t>Had Ik Maar Kanker</t>
-  </si>
-  <si>
-    <t>Had Ik Maar Iemand Om Mee Te Vouwen</t>
-  </si>
-  <si>
-    <t>Haaland (Ha Ha Ha)</t>
-  </si>
-  <si>
-    <t>Gucci Pet</t>
-  </si>
-  <si>
-    <t>Groeten Van Je Apotheker</t>
-  </si>
-  <si>
-    <t>Greazy Frog</t>
-  </si>
-  <si>
-    <t>Grasmaaier</t>
-  </si>
-  <si>
-    <t>Gouden Bentleys Naar De Hel</t>
-  </si>
-  <si>
-    <t>Gone up in Flames</t>
-  </si>
-  <si>
-    <t>Goldenboy</t>
-  </si>
-  <si>
-    <t>Goeie Koper</t>
-  </si>
-  <si>
-    <t>Goed Opgedroogd</t>
-  </si>
-  <si>
-    <t>God Save The Rave</t>
-  </si>
-  <si>
-    <t>Glijpanter</t>
-  </si>
-  <si>
-    <t>אני כבר לא זוכר</t>
+    <t>Sportpiet,De Club van Sinterklaas</t>
+  </si>
+  <si>
+    <t>Spliff</t>
+  </si>
+  <si>
+    <t>Krytax</t>
+  </si>
+  <si>
+    <t>Kesha</t>
+  </si>
+  <si>
+    <t>Krokante Kaaskorst,Kale Toeter</t>
+  </si>
+  <si>
+    <t>DV8,Wilbert Pigmans,Zany</t>
+  </si>
+  <si>
+    <t>De Losse Flodders</t>
+  </si>
+  <si>
+    <t>De Doelleazen</t>
+  </si>
+  <si>
+    <t>De Alpenzusjes,Opgeblazen</t>
+  </si>
+  <si>
+    <t>David Guetta,Anne-Marie,Coi Leray</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Dave Porter</t>
+  </si>
+  <si>
+    <t>Daniel Powter</t>
+  </si>
+  <si>
+    <t>Danidosss</t>
+  </si>
+  <si>
+    <t>Da Vinci's Notebook</t>
+  </si>
+  <si>
+    <t>Da Tweekaz,High Level</t>
+  </si>
+  <si>
+    <t>DRILL GATES</t>
+  </si>
+  <si>
+    <t>De Zingende Postbodes&amp;Jan Helder</t>
+  </si>
+  <si>
+    <t>DRAAH</t>
+  </si>
+  <si>
+    <t>DJ Yolotanker</t>
+  </si>
+  <si>
+    <t>DJ Porny</t>
+  </si>
+  <si>
+    <t>DJ Martiens,Robin van Herwijnen</t>
+  </si>
+  <si>
+    <t>DJ Gollum,Basslovers United</t>
+  </si>
+  <si>
+    <t>DJ Ferry W</t>
+  </si>
+  <si>
+    <t>DJ CHRISTIAN NXC,DJ UWU,Fallen Shrine,uwu</t>
+  </si>
+  <si>
+    <t>DIKKE BAAP,D-Fence</t>
+  </si>
+  <si>
+    <t>Current Value</t>
+  </si>
+  <si>
+    <t>Cozy Panic,Spaceman Cody,Widzo Li</t>
+  </si>
+  <si>
+    <t>Counting Crows,BLØF</t>
+  </si>
+  <si>
+    <t>De Toppers</t>
+  </si>
+  <si>
+    <t>Depeche Mode</t>
+  </si>
+  <si>
+    <t>Krokante Kaaskorst</t>
+  </si>
+  <si>
+    <t>Donnie,Gerard Joling</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>EZG,Steen,Chaotic Hostility,Vieze Asbak</t>
+  </si>
+  <si>
+    <t>EZG</t>
+  </si>
+  <si>
+    <t>Dutch Boys</t>
+  </si>
+  <si>
+    <t>Duo Karst</t>
+  </si>
+  <si>
+    <t>Dubstep Hitz</t>
+  </si>
+  <si>
+    <t>DragonForce</t>
+  </si>
+  <si>
+    <t>Douwe Ka,Weemoed</t>
+  </si>
+  <si>
+    <t>Door van Boeckel,David Verbeek,Piet Hein Snijders,Jurrian van Dongen</t>
+  </si>
+  <si>
+    <t>Donnie,Wolter Kroes</t>
+  </si>
+  <si>
+    <t>Donnie,Roxeanne Hazes</t>
+  </si>
+  <si>
+    <t>Donnie,Chantal Janzen</t>
+  </si>
+  <si>
+    <t>Dico</t>
+  </si>
+  <si>
+    <t>Donnie,Bizzey,Bokoesam,Lange Frans,Joost,Joel Beukers,Leipe Dennis</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Django Wagner</t>
+  </si>
+  <si>
+    <t>Dizzee Rascal</t>
+  </si>
+  <si>
+    <t>Dirk Meeldijk</t>
+  </si>
+  <si>
+    <t>Dino Dvornik</t>
+  </si>
+  <si>
+    <t>Dingetje</t>
+  </si>
+  <si>
+    <t>Dikke Lul Band</t>
+  </si>
+  <si>
+    <t>Dik</t>
+  </si>
+  <si>
+    <t>DigBar</t>
+  </si>
+  <si>
+    <t>Diepfrieskip</t>
+  </si>
+  <si>
+    <t>Chumbawamba</t>
+  </si>
+  <si>
+    <t>Christopher Larkin</t>
+  </si>
+  <si>
+    <t>Chipz,Hak op de Tak,Martin B</t>
+  </si>
+  <si>
+    <t>Ajax FanChants,FanChants</t>
+  </si>
+  <si>
+    <t>Barry Fest,Tim Schalkx,DJ Maurice</t>
+  </si>
+  <si>
+    <t>Barry Badpak,Marco Kraats,DJ Maurice</t>
+  </si>
+  <si>
+    <t>Backstreet Boys</t>
+  </si>
+  <si>
+    <t>Babert,Mell Hall</t>
+  </si>
+  <si>
+    <t>BLØF</t>
+  </si>
+  <si>
+    <t>BAKI,ZYZZ,GYM HARDSTYLE</t>
+  </si>
+  <si>
+    <t>Avu-chan</t>
+  </si>
+  <si>
+    <t>Average Rob,Arno The Kid</t>
+  </si>
+  <si>
+    <t>Atmozfears,Sound Rush</t>
+  </si>
+  <si>
+    <t>Ammar</t>
+  </si>
+  <si>
+    <t>Alex Puddu</t>
+  </si>
+  <si>
+    <t>ATARASHII GAKKO!</t>
+  </si>
+  <si>
+    <t>Chaotic Hostility,gladde paling</t>
+  </si>
+  <si>
+    <t>ARENCI</t>
+  </si>
+  <si>
+    <t>ALATIC</t>
+  </si>
+  <si>
+    <t>A Touch Of Class,Pete Konemann</t>
+  </si>
+  <si>
+    <t>A Lost People</t>
+  </si>
+  <si>
+    <t>50 Cent</t>
+  </si>
+  <si>
+    <t>3 meter Peter</t>
+  </si>
+  <si>
+    <t>2O3A</t>
+  </si>
+  <si>
+    <t>2Hounds,TECHNO KING</t>
+  </si>
+  <si>
+    <t>2 Brothers On The 4th Floor</t>
+  </si>
+  <si>
+    <t>103e MT,HHB</t>
+  </si>
+  <si>
+    <t>*NSYNC</t>
+  </si>
+  <si>
+    <t>Barry Gomez</t>
+  </si>
+  <si>
+    <t>Bartje Biertje,Vito</t>
+  </si>
+  <si>
+    <t>Bas Hoeflaak</t>
+  </si>
+  <si>
+    <t>Bass Chaserz,De Sfeermakers</t>
+  </si>
+  <si>
+    <t>Caramella Girls</t>
+  </si>
+  <si>
+    <t>Caramell</t>
+  </si>
+  <si>
+    <t>Cannibalistic Sqvirrel</t>
+  </si>
+  <si>
+    <t>Calm Music Masters</t>
+  </si>
+  <si>
+    <t>Café De Kok,Ada</t>
+  </si>
+  <si>
+    <t>Caesars</t>
+  </si>
+  <si>
+    <t>Cadeautje voor jou</t>
+  </si>
+  <si>
+    <t>CTID</t>
+  </si>
+  <si>
+    <t>CRi,Jesse Mac Cormack</t>
+  </si>
+  <si>
+    <t>C.V. De GiErBoYs</t>
+  </si>
+  <si>
+    <t>Britt</t>
+  </si>
+  <si>
+    <t>Bomfunk MC's</t>
+  </si>
+  <si>
+    <t>BokoeJul,Mr Aldi</t>
+  </si>
+  <si>
+    <t>Bizzey,Kraantje Pappie,Rolf Sanchez</t>
+  </si>
+  <si>
+    <t>Billie Eilish</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Benny Neyman</t>
+  </si>
+  <si>
+    <t>Bennie Beenham</t>
+  </si>
+  <si>
+    <t>Becky G</t>
+  </si>
+  <si>
+    <t>Beatcrooks,Wimsalabim</t>
+  </si>
+  <si>
+    <t>Beatcrooks</t>
+  </si>
+  <si>
+    <t>Bassistent</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Eight Waters,KXXMA</t>
+  </si>
+  <si>
+    <t>Elmer</t>
+  </si>
+  <si>
+    <t>JT Young</t>
+  </si>
+  <si>
+    <t>John De Bever</t>
+  </si>
+  <si>
+    <t>Jochem van Gelder - Wild Geraas</t>
+  </si>
+  <si>
+    <t>Jmbeatz</t>
+  </si>
+  <si>
+    <t>Jimix Vendetta</t>
+  </si>
+  <si>
+    <t>Jeckyll &amp; Hyde,M. Vorwerk,R. van IJperen</t>
+  </si>
+  <si>
+    <t>Jeckyll &amp; Hyde</t>
+  </si>
+  <si>
+    <t>Jan van der meij,Marjolein Meijers,Jan Rot</t>
+  </si>
+  <si>
+    <t>Jan Smit,André Rieu,John De Bever,Jack Van Gelder</t>
+  </si>
+  <si>
+    <t>Jan Smit</t>
+  </si>
+  <si>
+    <t>Jan Biggel</t>
+  </si>
+  <si>
+    <t>Jaap Reesema,Pommelien Thijs</t>
+  </si>
+  <si>
+    <t>J-Nius</t>
+  </si>
+  <si>
+    <t>Harris &amp; Ford,Alex Christensen,Yass</t>
+  </si>
+  <si>
+    <t>Ina Colada,Tom Juno</t>
+  </si>
+  <si>
+    <t>Ikke Hüftgold</t>
+  </si>
+  <si>
+    <t>INVICTA,Lustrum A.S.C./A.V.S.V.,Gijs Stenfert</t>
+  </si>
+  <si>
+    <t>Huub Hangop,Zany</t>
+  </si>
+  <si>
+    <t>Het Lied Van De Werknemers van PHILIPS</t>
+  </si>
+  <si>
+    <t>Hermes House Band</t>
+  </si>
+  <si>
+    <t>Henk Wijngaard</t>
+  </si>
+  <si>
+    <t>Helene Fischer,dB</t>
+  </si>
+  <si>
+    <t>Helemaal Hollands</t>
+  </si>
+  <si>
+    <t>Heerenveen FanChants,SC Heerenveen Football Songs</t>
+  </si>
+  <si>
+    <t>Harris &amp; Ford,NoooN,Omar Sarsam,Marc Bernhuber</t>
+  </si>
+  <si>
+    <t>John Deerne,Mooi Wark</t>
+  </si>
+  <si>
+    <t>John West</t>
+  </si>
+  <si>
+    <t>Jonathan Wolff</t>
+  </si>
+  <si>
+    <t>Jonesmann</t>
+  </si>
+  <si>
+    <t>Kougan</t>
+  </si>
+  <si>
+    <t>Koen</t>
+  </si>
+  <si>
+    <t>Knurft,GEWOONRAVES</t>
+  </si>
+  <si>
+    <t>Knurft</t>
+  </si>
+  <si>
+    <t>Knu</t>
+  </si>
+  <si>
+    <t>Kleine Crack,Doevoe,Slagter,Zeldzame</t>
+  </si>
+  <si>
+    <t>Klaus Doldinger</t>
+  </si>
+  <si>
+    <t>Klapperkebab,Kale Toeter</t>
+  </si>
+  <si>
+    <t>Klapperkebab</t>
+  </si>
+  <si>
+    <t>Kinderen voor Kinderen</t>
+  </si>
+  <si>
+    <t>Kiesza</t>
+  </si>
+  <si>
+    <t>Kevin Sherwood</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>$yn</t>
+  </si>
+  <si>
+    <t>Kermit dun Kwakert,Kelsey Ikkersheim,Oeteldonk</t>
+  </si>
+  <si>
+    <t>Kenny G</t>
+  </si>
+  <si>
+    <t>Kayote,TCM</t>
+  </si>
+  <si>
+    <t>Kale Toeter,Volviers</t>
+  </si>
+  <si>
+    <t>Kabouter Plop</t>
+  </si>
+  <si>
+    <t>K-Liber,Def Rhymz,Buckle Up,DJ Moortje</t>
+  </si>
+  <si>
+    <t>Jörg Bausch</t>
+  </si>
+  <si>
+    <t>Jordi Dj.Neyt</t>
+  </si>
+  <si>
+    <t>Joost,Vieze Asbak</t>
+  </si>
+  <si>
+    <t>Harris &amp; Ford,GPF,DJ Gollum</t>
+  </si>
+  <si>
+    <t>Harrie Jekkers</t>
+  </si>
+  <si>
+    <t>Equilibrium</t>
+  </si>
+  <si>
+    <t>Ferry de Lits,Stamppot</t>
+  </si>
+  <si>
+    <t>Gabber Piet</t>
+  </si>
+  <si>
+    <t>GPF,D-Fence</t>
+  </si>
+  <si>
+    <t>Fred again..,The Blessed Madonna</t>
+  </si>
+  <si>
+    <t>Frans Duijts</t>
+  </si>
+  <si>
+    <t>Franky B.,Cooldown</t>
+  </si>
+  <si>
+    <t>Frank Van Etten</t>
+  </si>
+  <si>
+    <t>Frank Black</t>
+  </si>
+  <si>
+    <t>Forgiato Blow</t>
+  </si>
+  <si>
+    <t>Flo Rida,T-Pain</t>
+  </si>
+  <si>
+    <t>Finntroll</t>
+  </si>
+  <si>
+    <t>Finnolia Sound Effects</t>
+  </si>
+  <si>
+    <t>Feestduo Kaaigezellig</t>
+  </si>
+  <si>
+    <t>Hans Glock,Outsiders,Dutch Movement</t>
+  </si>
+  <si>
+    <t>FeestDJRuud,Yung Petsi,Donnie,Joost,KA$PER HITS</t>
+  </si>
+  <si>
+    <t>Fazlija</t>
+  </si>
+  <si>
+    <t>Fallen Shrine</t>
+  </si>
+  <si>
+    <t>Faberyayo,Zeldzame,Firoza,Gotu Jim</t>
+  </si>
+  <si>
+    <t>Faberyayo,Gotu Jim</t>
+  </si>
+  <si>
+    <t>Faberyayo</t>
+  </si>
+  <si>
+    <t>FEEST DJ MAARTEN</t>
+  </si>
+  <si>
+    <t>FC Volendam</t>
+  </si>
+  <si>
+    <t>Exorcism</t>
+  </si>
+  <si>
+    <t>Evert van Huygevoort</t>
+  </si>
+  <si>
+    <t>Error37</t>
+  </si>
+  <si>
+    <t>Gebroeders Ko,Gerard Joling</t>
+  </si>
+  <si>
+    <t>Geier Sturzflug</t>
+  </si>
+  <si>
+    <t>Gerard Joling</t>
+  </si>
+  <si>
+    <t>Gerard Joling,Donnie</t>
+  </si>
+  <si>
+    <t>Hang Youth</t>
+  </si>
+  <si>
+    <t>HOL!</t>
+  </si>
+  <si>
+    <t>HET POMPSTATION,Yung Petsi,KA$PER HITS</t>
+  </si>
+  <si>
+    <t>HET POMPSTATION,Pinotello,Yung Petsi,KA$PER HITS</t>
+  </si>
+  <si>
+    <t>HET POMPSTATION,Opgekonkerd,Yung Petsi,KA$PER HITS</t>
+  </si>
+  <si>
+    <t>Guus Meeuwis,Nielson,New Cool Collective</t>
+  </si>
+  <si>
+    <t>Guru Woof Ontspannende Muziek Voor Kinderen</t>
+  </si>
+  <si>
+    <t>Gullie,Lanterfantje</t>
+  </si>
+  <si>
+    <t>Gregory Porter</t>
+  </si>
+  <si>
+    <t>Gotu Jim,Zeldzame</t>
+  </si>
+  <si>
+    <t>Gotu Jim,Tjade</t>
+  </si>
+  <si>
+    <t>Gotu Jim,Frank van der Lende</t>
+  </si>
+  <si>
+    <t>Gotu Jim,Bokoesam</t>
+  </si>
+  <si>
+    <t>Goldband</t>
+  </si>
+  <si>
+    <t>Godenzonen</t>
+  </si>
+  <si>
+    <t>Glorb,Mr Swags,SpongeOpp,Squidwock</t>
+  </si>
+  <si>
+    <t>Gipsy Kings</t>
+  </si>
+  <si>
+    <t>Gino Pietermaai,Killer Kamal</t>
+  </si>
+  <si>
+    <t>Gino Pietermaai,Ferdi</t>
+  </si>
+  <si>
+    <t>Geschenk für dich</t>
+  </si>
+  <si>
+    <t>Gers Pardoel</t>
+  </si>
+  <si>
+    <t>German Truck Driver</t>
+  </si>
+  <si>
+    <t>Gerard Reve</t>
+  </si>
+  <si>
+    <t>סינגפור</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2136,7 +1938,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2156,7 +1958,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2176,7 +1978,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2196,7 +1998,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2216,7 +2018,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2233,10 +2035,10 @@
         <v>2.4</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2253,10 +2055,10 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2273,7 +2075,7 @@
         <v>2.6</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2343,7 +2145,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C545"/>
+  <dimension ref="A1:C478"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2351,7 +2153,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2362,68 +2164,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>4.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2431,76 +2233,76 @@
         <v>37</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1.5</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2508,51 +2310,51 @@
         <v>42</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2560,164 +2362,164 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2725,43 +2527,43 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2769,98 +2571,98 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2868,10 +2670,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2879,172 +2681,172 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3055,29 +2857,29 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3088,18 +2890,18 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3110,62 +2912,62 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -3176,106 +2978,106 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3286,73 +3088,73 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -3363,7 +3165,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -3374,73 +3176,73 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3451,95 +3253,95 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3550,29 +3352,29 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3583,7 +3385,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3594,128 +3396,128 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3726,7 +3528,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -3737,73 +3539,73 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -3814,29 +3616,29 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -3847,51 +3649,51 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -3902,216 +3704,216 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4122,7 +3924,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -4133,117 +3935,117 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -4254,29 +4056,29 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -4287,7 +4089,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -4298,29 +4100,29 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -4331,29 +4133,29 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4364,7 +4166,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -4375,7 +4177,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -4386,29 +4188,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4419,7 +4221,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4430,18 +4232,18 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
       <c r="C190">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -4452,95 +4254,95 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
       <c r="C198">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4551,18 +4353,18 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -4573,18 +4375,18 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -4595,95 +4397,95 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
       <c r="C206">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
       <c r="C211">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -4694,51 +4496,51 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -4749,51 +4551,51 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
       <c r="C220">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
       <c r="C222">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -4804,73 +4606,73 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
       <c r="C224">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -4881,205 +4683,205 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B233">
         <v>1</v>
       </c>
       <c r="C233">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B234">
         <v>1</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
       <c r="C235">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B236">
         <v>1</v>
       </c>
       <c r="C236">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B237">
         <v>1</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B238">
         <v>1</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B239">
         <v>1</v>
       </c>
       <c r="C239">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
       <c r="C240">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B241">
         <v>1</v>
       </c>
       <c r="C241">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
       <c r="C242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B243">
         <v>1</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
       <c r="C246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
       <c r="C247">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B248">
         <v>1</v>
       </c>
       <c r="C248">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -5090,40 +4892,40 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B250">
         <v>1</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B251">
         <v>1</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B252">
         <v>1</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -5134,106 +4936,106 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B254">
         <v>1</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
       <c r="C256">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
       <c r="C259">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
       <c r="C260">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="B261">
         <v>1</v>
       </c>
       <c r="C261">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B262">
         <v>1</v>
       </c>
       <c r="C262">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -5244,7 +5046,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -5255,51 +5057,51 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
       <c r="C265">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
       <c r="C268">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -5310,18 +5112,18 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -5332,62 +5134,62 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B272">
         <v>1</v>
       </c>
       <c r="C272">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
       <c r="C275">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -5398,18 +5200,18 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -5420,18 +5222,18 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
       <c r="C280">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -5442,117 +5244,117 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
       <c r="C282">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B283">
         <v>1</v>
       </c>
       <c r="C283">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B284">
         <v>1</v>
       </c>
       <c r="C284">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
       <c r="C285">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B286">
         <v>1</v>
       </c>
       <c r="C286">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B287">
         <v>1</v>
       </c>
       <c r="C287">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B288">
         <v>1</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B289">
         <v>1</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
       <c r="C290">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
       <c r="C291">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -5563,51 +5365,51 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
       <c r="C293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B294">
         <v>1</v>
       </c>
       <c r="C294">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B295">
         <v>1</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
       <c r="C296">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -5618,18 +5420,18 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B298">
         <v>1</v>
       </c>
       <c r="C298">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -5640,139 +5442,139 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B300">
         <v>1</v>
       </c>
       <c r="C300">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B301">
         <v>1</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B302">
         <v>1</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B303">
         <v>1</v>
       </c>
       <c r="C303">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B304">
         <v>1</v>
       </c>
       <c r="C304">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B305">
         <v>1</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B306">
         <v>1</v>
       </c>
       <c r="C306">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B307">
         <v>1</v>
       </c>
       <c r="C307">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B308">
         <v>1</v>
       </c>
       <c r="C308">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B309">
         <v>1</v>
       </c>
       <c r="C309">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B310">
         <v>1</v>
       </c>
       <c r="C310">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B311">
         <v>1</v>
       </c>
       <c r="C311">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -5783,40 +5585,40 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B313">
         <v>1</v>
       </c>
       <c r="C313">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B314">
         <v>1</v>
       </c>
       <c r="C314">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B315">
         <v>1</v>
       </c>
       <c r="C315">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -5827,7 +5629,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -5838,172 +5640,172 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B318">
         <v>1</v>
       </c>
       <c r="C318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B319">
         <v>1</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B320">
         <v>1</v>
       </c>
       <c r="C320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B321">
         <v>1</v>
       </c>
       <c r="C321">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B322">
         <v>1</v>
       </c>
       <c r="C322">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B323">
         <v>1</v>
       </c>
       <c r="C323">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B324">
         <v>1</v>
       </c>
       <c r="C324">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B325">
         <v>1</v>
       </c>
       <c r="C325">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B326">
         <v>1</v>
       </c>
       <c r="C326">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B327">
         <v>1</v>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B328">
         <v>1</v>
       </c>
       <c r="C328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B329">
         <v>1</v>
       </c>
       <c r="C329">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B330">
         <v>1</v>
       </c>
       <c r="C330">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B331">
         <v>1</v>
       </c>
       <c r="C331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B332">
         <v>1</v>
       </c>
       <c r="C332">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6014,227 +5816,227 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="B334">
         <v>1</v>
       </c>
       <c r="C334">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B335">
         <v>1</v>
       </c>
       <c r="C335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B336">
         <v>1</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B337">
         <v>1</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B338">
         <v>1</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B339">
         <v>1</v>
       </c>
       <c r="C339">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B340">
         <v>1</v>
       </c>
       <c r="C340">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B341">
         <v>1</v>
       </c>
       <c r="C341">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B342">
         <v>1</v>
       </c>
       <c r="C342">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B343">
         <v>1</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B344">
         <v>1</v>
       </c>
       <c r="C344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B345">
         <v>1</v>
       </c>
       <c r="C345">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B346">
         <v>1</v>
       </c>
       <c r="C346">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B347">
         <v>1</v>
       </c>
       <c r="C347">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B348">
         <v>1</v>
       </c>
       <c r="C348">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B349">
         <v>1</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B350">
         <v>1</v>
       </c>
       <c r="C350">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B351">
         <v>1</v>
       </c>
       <c r="C351">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>17</v>
+        <v>375</v>
       </c>
       <c r="B352">
         <v>1</v>
       </c>
       <c r="C352">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B353">
         <v>1</v>
       </c>
       <c r="C353">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -6245,62 +6047,62 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B355">
         <v>1</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>381</v>
+        <v>21</v>
       </c>
       <c r="B356">
         <v>1</v>
       </c>
       <c r="C356">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B357">
         <v>1</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B358">
         <v>1</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B359">
         <v>1</v>
       </c>
       <c r="C359">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -6311,84 +6113,84 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B361">
         <v>1</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B362">
         <v>1</v>
       </c>
       <c r="C362">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B363">
         <v>1</v>
       </c>
       <c r="C363">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B364">
         <v>1</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B365">
         <v>1</v>
       </c>
       <c r="C365">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B366">
         <v>1</v>
       </c>
       <c r="C366">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B367">
         <v>1</v>
       </c>
       <c r="C367">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -6399,40 +6201,40 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B369">
         <v>1</v>
       </c>
       <c r="C369">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B370">
         <v>1</v>
       </c>
       <c r="C370">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B371">
         <v>1</v>
       </c>
       <c r="C371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -6443,172 +6245,172 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B373">
         <v>1</v>
       </c>
       <c r="C373">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>18</v>
+        <v>396</v>
       </c>
       <c r="B374">
         <v>1</v>
       </c>
       <c r="C374">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B375">
         <v>1</v>
       </c>
       <c r="C375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B376">
         <v>1</v>
       </c>
       <c r="C376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B377">
         <v>1</v>
       </c>
       <c r="C377">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B378">
         <v>1</v>
       </c>
       <c r="C378">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B379">
         <v>1</v>
       </c>
       <c r="C379">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B380">
         <v>1</v>
       </c>
       <c r="C380">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B381">
         <v>1</v>
       </c>
       <c r="C381">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B382">
         <v>1</v>
       </c>
       <c r="C382">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B383">
         <v>1</v>
       </c>
       <c r="C383">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B384">
         <v>1</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B385">
         <v>1</v>
       </c>
       <c r="C385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B386">
         <v>1</v>
       </c>
       <c r="C386">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B387">
         <v>1</v>
       </c>
       <c r="C387">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -6619,227 +6421,227 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B389">
         <v>1</v>
       </c>
       <c r="C389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B390">
         <v>1</v>
       </c>
       <c r="C390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B391">
         <v>1</v>
       </c>
       <c r="C391">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B392">
         <v>1</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B393">
         <v>1</v>
       </c>
       <c r="C393">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B394">
         <v>1</v>
       </c>
       <c r="C394">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B395">
         <v>1</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B396">
         <v>1</v>
       </c>
       <c r="C396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B397">
         <v>1</v>
       </c>
       <c r="C397">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B398">
         <v>1</v>
       </c>
       <c r="C398">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
-        <v>23</v>
+        <v>421</v>
       </c>
       <c r="B399">
         <v>1</v>
       </c>
       <c r="C399">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B400">
         <v>1</v>
       </c>
       <c r="C400">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B401">
         <v>1</v>
       </c>
       <c r="C401">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B402">
         <v>1</v>
       </c>
       <c r="C402">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B403">
         <v>1</v>
       </c>
       <c r="C403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B404">
         <v>1</v>
       </c>
       <c r="C404">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B405">
         <v>1</v>
       </c>
       <c r="C405">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B406">
         <v>1</v>
       </c>
       <c r="C406">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B407">
         <v>1</v>
       </c>
       <c r="C407">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B408">
         <v>1</v>
       </c>
       <c r="C408">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -6850,29 +6652,29 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B410">
         <v>1</v>
       </c>
       <c r="C410">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B411">
         <v>1</v>
       </c>
       <c r="C411">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -6883,293 +6685,293 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B413">
         <v>1</v>
       </c>
       <c r="C413">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B414">
         <v>1</v>
       </c>
       <c r="C414">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B415">
         <v>1</v>
       </c>
       <c r="C415">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B416">
         <v>1</v>
       </c>
       <c r="C416">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B417">
         <v>1</v>
       </c>
       <c r="C417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B418">
         <v>1</v>
       </c>
       <c r="C418">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B419">
         <v>1</v>
       </c>
       <c r="C419">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B420">
         <v>1</v>
       </c>
       <c r="C420">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B421">
         <v>1</v>
       </c>
       <c r="C421">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B422">
         <v>1</v>
       </c>
       <c r="C422">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B423">
         <v>1</v>
       </c>
       <c r="C423">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B424">
         <v>1</v>
       </c>
       <c r="C424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B425">
         <v>1</v>
       </c>
       <c r="C425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B426">
         <v>1</v>
       </c>
       <c r="C426">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B427">
         <v>1</v>
       </c>
       <c r="C427">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B428">
         <v>1</v>
       </c>
       <c r="C428">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B429">
         <v>1</v>
       </c>
       <c r="C429">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B430">
         <v>1</v>
       </c>
       <c r="C430">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B431">
         <v>1</v>
       </c>
       <c r="C431">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B432">
         <v>1</v>
       </c>
       <c r="C432">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B433">
         <v>1</v>
       </c>
       <c r="C433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B434">
         <v>1</v>
       </c>
       <c r="C434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B435">
         <v>1</v>
       </c>
       <c r="C435">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B436">
         <v>1</v>
       </c>
       <c r="C436">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B437">
         <v>1</v>
       </c>
       <c r="C437">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B438">
         <v>1</v>
       </c>
       <c r="C438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -7180,51 +6982,51 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B440">
         <v>1</v>
       </c>
       <c r="C440">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B441">
         <v>1</v>
       </c>
       <c r="C441">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B442">
         <v>1</v>
       </c>
       <c r="C442">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B443">
         <v>1</v>
       </c>
       <c r="C443">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -7235,51 +7037,51 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B445">
         <v>1</v>
       </c>
       <c r="C445">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B446">
         <v>1</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B447">
         <v>1</v>
       </c>
       <c r="C447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B448">
         <v>1</v>
       </c>
       <c r="C448">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -7290,7 +7092,7 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -7301,51 +7103,51 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B451">
         <v>1</v>
       </c>
       <c r="C451">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B452">
         <v>1</v>
       </c>
       <c r="C452">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B453">
         <v>1</v>
       </c>
       <c r="C453">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B454">
         <v>1</v>
       </c>
       <c r="C454">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -7356,7 +7158,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -7367,18 +7169,18 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B457">
         <v>1</v>
       </c>
       <c r="C457">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -7389,90 +7191,90 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B459">
         <v>1</v>
       </c>
       <c r="C459">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B460">
         <v>1</v>
       </c>
       <c r="C460">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B461">
         <v>1</v>
       </c>
       <c r="C461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B462">
         <v>1</v>
       </c>
       <c r="C462">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B463">
         <v>1</v>
       </c>
       <c r="C463">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B464">
         <v>1</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B465">
         <v>1</v>
       </c>
       <c r="C465">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
-        <v>7</v>
+        <v>488</v>
       </c>
       <c r="B466">
         <v>1</v>
       </c>
       <c r="C466">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7494,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7505,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7516,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="C470">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7527,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="C471">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7538,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7549,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="C473">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7560,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="C474">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7571,7 +7373,7 @@
         <v>1</v>
       </c>
       <c r="C475">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7582,7 +7384,7 @@
         <v>1</v>
       </c>
       <c r="C476">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7593,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="C477">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7604,748 +7406,11 @@
         <v>1</v>
       </c>
       <c r="C478">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
-      <c r="A479" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B479">
-        <v>1</v>
-      </c>
-      <c r="C479">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
-      <c r="A480" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B480">
-        <v>1</v>
-      </c>
-      <c r="C480">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
-      <c r="A481" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B481">
-        <v>1</v>
-      </c>
-      <c r="C481">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
-      <c r="A482" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B482">
-        <v>1</v>
-      </c>
-      <c r="C482">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
-      <c r="A483" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B483">
-        <v>1</v>
-      </c>
-      <c r="C483">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3">
-      <c r="A484" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B484">
-        <v>1</v>
-      </c>
-      <c r="C484">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
-      <c r="A485" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B485">
-        <v>1</v>
-      </c>
-      <c r="C485">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3">
-      <c r="A486" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B486">
-        <v>1</v>
-      </c>
-      <c r="C486">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3">
-      <c r="A487" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B487">
-        <v>1</v>
-      </c>
-      <c r="C487">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3">
-      <c r="A488" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B488">
-        <v>1</v>
-      </c>
-      <c r="C488">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
-      <c r="A489" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B489">
-        <v>1</v>
-      </c>
-      <c r="C489">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3">
-      <c r="A490" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B490">
-        <v>1</v>
-      </c>
-      <c r="C490">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
-      <c r="A491" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B491">
-        <v>1</v>
-      </c>
-      <c r="C491">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3">
-      <c r="A492" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B492">
-        <v>1</v>
-      </c>
-      <c r="C492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3">
-      <c r="A493" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B493">
-        <v>1</v>
-      </c>
-      <c r="C493">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
-      <c r="A494" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B494">
-        <v>1</v>
-      </c>
-      <c r="C494">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
-      <c r="A495" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B495">
-        <v>1</v>
-      </c>
-      <c r="C495">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
-      <c r="A496" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B496">
-        <v>1</v>
-      </c>
-      <c r="C496">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
-      <c r="A497" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B497">
-        <v>1</v>
-      </c>
-      <c r="C497">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3">
-      <c r="A498" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B498">
-        <v>1</v>
-      </c>
-      <c r="C498">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
-      <c r="A499" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B499">
-        <v>1</v>
-      </c>
-      <c r="C499">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3">
-      <c r="A500" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B500">
-        <v>1</v>
-      </c>
-      <c r="C500">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3">
-      <c r="A501" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B501">
-        <v>1</v>
-      </c>
-      <c r="C501">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
-      <c r="A502" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B502">
-        <v>1</v>
-      </c>
-      <c r="C502">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
-      <c r="A503" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B503">
-        <v>1</v>
-      </c>
-      <c r="C503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3">
-      <c r="A504" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B504">
-        <v>1</v>
-      </c>
-      <c r="C504">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3">
-      <c r="A505" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B505">
-        <v>1</v>
-      </c>
-      <c r="C505">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3">
-      <c r="A506" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B506">
-        <v>1</v>
-      </c>
-      <c r="C506">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
-      <c r="A507" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B507">
-        <v>1</v>
-      </c>
-      <c r="C507">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
-      <c r="A508" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B508">
-        <v>1</v>
-      </c>
-      <c r="C508">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3">
-      <c r="A509" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B509">
-        <v>1</v>
-      </c>
-      <c r="C509">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3">
-      <c r="A510" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B510">
-        <v>1</v>
-      </c>
-      <c r="C510">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3">
-      <c r="A511" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B511">
-        <v>1</v>
-      </c>
-      <c r="C511">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3">
-      <c r="A512" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B512">
-        <v>1</v>
-      </c>
-      <c r="C512">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
-      <c r="A513" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B513">
-        <v>1</v>
-      </c>
-      <c r="C513">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
-      <c r="A514" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B514">
-        <v>1</v>
-      </c>
-      <c r="C514">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
-      <c r="A515" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B515">
-        <v>1</v>
-      </c>
-      <c r="C515">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
-      <c r="A516" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B516">
-        <v>1</v>
-      </c>
-      <c r="C516">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
-      <c r="A517" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B517">
-        <v>1</v>
-      </c>
-      <c r="C517">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
-      <c r="A518" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B518">
-        <v>1</v>
-      </c>
-      <c r="C518">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
-      <c r="A519" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B519">
-        <v>1</v>
-      </c>
-      <c r="C519">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
-      <c r="A520" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B520">
-        <v>1</v>
-      </c>
-      <c r="C520">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
-      <c r="A521" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B521">
-        <v>1</v>
-      </c>
-      <c r="C521">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
-      <c r="A522" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B522">
-        <v>1</v>
-      </c>
-      <c r="C522">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
-      <c r="A523" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B523">
-        <v>1</v>
-      </c>
-      <c r="C523">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
-      <c r="A524" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B524">
-        <v>1</v>
-      </c>
-      <c r="C524">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B525">
-        <v>1</v>
-      </c>
-      <c r="C525">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B526">
-        <v>1</v>
-      </c>
-      <c r="C526">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
-      <c r="A527" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B527">
-        <v>1</v>
-      </c>
-      <c r="C527">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3">
-      <c r="A528" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B528">
-        <v>1</v>
-      </c>
-      <c r="C528">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3">
-      <c r="A529" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B529">
-        <v>1</v>
-      </c>
-      <c r="C529">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3">
-      <c r="A530" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B530">
-        <v>1</v>
-      </c>
-      <c r="C530">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3">
-      <c r="A531" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B531">
-        <v>1</v>
-      </c>
-      <c r="C531">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3">
-      <c r="A532" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B532">
-        <v>1</v>
-      </c>
-      <c r="C532">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3">
-      <c r="A533" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B533">
-        <v>1</v>
-      </c>
-      <c r="C533">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3">
-      <c r="A534" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B534">
-        <v>1</v>
-      </c>
-      <c r="C534">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3">
-      <c r="A535" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B535">
-        <v>1</v>
-      </c>
-      <c r="C535">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3">
-      <c r="A536" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B536">
-        <v>1</v>
-      </c>
-      <c r="C536">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3">
-      <c r="A537" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B537">
-        <v>1</v>
-      </c>
-      <c r="C537">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3">
-      <c r="A538" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B538">
-        <v>1</v>
-      </c>
-      <c r="C538">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3">
-      <c r="A539" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B539">
-        <v>1</v>
-      </c>
-      <c r="C539">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3">
-      <c r="A540" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B540">
-        <v>1</v>
-      </c>
-      <c r="C540">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3">
-      <c r="A541" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B541">
-        <v>1</v>
-      </c>
-      <c r="C541">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3">
-      <c r="A542" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B542">
-        <v>1</v>
-      </c>
-      <c r="C542">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3">
-      <c r="A543" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B543">
-        <v>1</v>
-      </c>
-      <c r="C543">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3">
-      <c r="A544" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B544">
-        <v>1</v>
-      </c>
-      <c r="C544">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3">
-      <c r="A545" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B545">
-        <v>1</v>
-      </c>
-      <c r="C545">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B545">
+  <conditionalFormatting sqref="B2:B478">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8357,7 +7422,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C545">
+  <conditionalFormatting sqref="C2:C478">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
